--- a/graph.xlsx
+++ b/graph.xlsx
@@ -158,6 +158,64 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$14:$A$19</c:f>
@@ -399,7 +457,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Actual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Vs. Expected Packet Transmission Count.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual Number Transmitted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>121.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3820-4BF2-8F1D-DC138A973D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Expected Number Transmitted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.04081632653062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3820-4BF2-8F1D-DC138A973D65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1060478976"/>
+        <c:axId val="1024465552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1060478976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" baseline="0"/>
+                  <a:t> of Packet Drop (P)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024465552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1024465552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Packets Sent (N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1060478976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66535814643107305"/>
+          <c:y val="0.5598425196850394"/>
+          <c:w val="0.26637612666017996"/>
+          <c:h val="0.16905458444311836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -955,20 +1636,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -988,6 +2172,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7C83B4-BBBA-4C29-A30C-DB58FA5F4DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1296,7 +2516,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="A14" sqref="A14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,6 +2778,10 @@
         <f>B12</f>
         <v>121.3</v>
       </c>
+      <c r="C14">
+        <f>100/(1-(2*A14))</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1567,6 +2791,10 @@
         <f>C12</f>
         <v>127.1</v>
       </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C19" si="1">100/(1-(2*A15))</f>
+        <v>102.04081632653062</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1576,8 +2804,12 @@
         <f>D12</f>
         <v>133</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>111.11111111111111</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -1585,8 +2817,12 @@
         <f>E12</f>
         <v>155.80000000000001</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.2</v>
       </c>
@@ -1594,14 +2830,22 @@
         <f>F12</f>
         <v>194.4</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>166.66666666666669</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.3</v>
       </c>
       <c r="B19">
         <f>G12</f>
         <v>260</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/graph.xlsx
+++ b/graph.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Josh\Documents\Uni\2017\Semester2\COSC264\Assignment\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\COSC264\Cosc264_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -96,382 +97,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$14:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>121.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>127.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>194.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C949-473D-B8D6-E2E79438D354}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="861146895"/>
-        <c:axId val="842580127"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="861146895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="842580127"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="842580127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="861146895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -501,6 +126,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -770,6 +396,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -890,6 +517,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1040,6 +668,531 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Packet Transmission</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Count at Different Probablilty of Packet Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>121.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9425-4C44-A37C-23090CBD2C9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="861146895"/>
+        <c:axId val="842580127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="861146895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Probability of Packet Loss (P)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842580127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842580127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transmitted</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Packet Count (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861146895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1121,7 +1274,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1148,8 +1301,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1250,7 +1403,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1282,10 +1435,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1325,23 +1478,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1446,8 +1598,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1579,20 +1731,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1606,17 +1757,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1637,7 +1777,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1664,8 +1804,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1766,7 +1906,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1798,10 +1938,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1841,22 +1981,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1961,8 +2102,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2094,19 +2235,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2120,6 +2262,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2143,52 +2296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CA1D3E-8ED7-4A37-A5A8-F2CABC24B81F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2207,7 +2324,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CA1D3E-8ED7-4A37-A5A8-F2CABC24B81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2516,12 +2676,12 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C19"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2704,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>119</v>
       </c>
@@ -2564,7 +2724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>117</v>
       </c>
@@ -2584,7 +2744,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>121</v>
       </c>
@@ -2604,7 +2764,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>130</v>
       </c>
@@ -2624,7 +2784,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>115</v>
       </c>
@@ -2644,7 +2804,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>120</v>
       </c>
@@ -2664,7 +2824,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>116</v>
       </c>
@@ -2684,7 +2844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>127</v>
       </c>
@@ -2704,7 +2864,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>124</v>
       </c>
@@ -2724,7 +2884,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>124</v>
       </c>
@@ -2744,7 +2904,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>SUM(B2:B11)/10</f>
         <v>121.3</v>
@@ -2770,7 +2930,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2783,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.01</v>
       </c>
@@ -2796,7 +2956,7 @@
         <v>102.04081632653062</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.05</v>
       </c>
@@ -2809,7 +2969,7 @@
         <v>111.11111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -2822,7 +2982,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.2</v>
       </c>
@@ -2835,7 +2995,7 @@
         <v>166.66666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
@@ -2852,4 +3012,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>